--- a/premise/data/additional_inventories/lci-synfuels-from-methanol-from-biomass.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-methanol-from-biomass.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="155">
   <si>
     <t>Activity</t>
   </si>
@@ -481,6 +481,9 @@
   </si>
   <si>
     <t>heat and power co-generation, biogas, gas engine</t>
+  </si>
+  <si>
+    <t>Comparative well-to-wheel life cycle assessment of OME3–5 synfuel production via the power-to-liquid pathway. Christoph Hank, Lukas Lazar, Franz Mantei, Mohamed Ouda, Robin J. White, Tom Smolinka, Achim Schaadt, Christopher Hebling and Hans-Martin Henning. 2019. https://doi.org/10.1039/C9SE00658C</t>
   </si>
 </sst>
 </file>
@@ -866,10 +869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K525"/>
+  <dimension ref="A1:K526"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A446" workbookViewId="0">
+      <selection activeCell="G451" sqref="G451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9801,79 +9804,64 @@
         <v>27</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A515" s="1" t="s">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>24</v>
+      </c>
+      <c r="B515" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A516" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
-        <v>9</v>
-      </c>
-      <c r="B516" t="s">
-        <v>10</v>
-      </c>
-      <c r="C516" t="s">
-        <v>11</v>
-      </c>
-      <c r="D516" t="s">
-        <v>6</v>
-      </c>
-      <c r="E516" t="s">
-        <v>12</v>
-      </c>
-      <c r="F516" t="s">
-        <v>4</v>
-      </c>
-      <c r="G516" t="s">
-        <v>2</v>
-      </c>
-      <c r="H516" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
+        <v>9</v>
+      </c>
+      <c r="B517" t="s">
+        <v>10</v>
+      </c>
+      <c r="C517" t="s">
+        <v>11</v>
+      </c>
+      <c r="D517" t="s">
+        <v>6</v>
+      </c>
+      <c r="E517" t="s">
+        <v>12</v>
+      </c>
+      <c r="F517" t="s">
+        <v>4</v>
+      </c>
+      <c r="G517" t="s">
+        <v>2</v>
+      </c>
+      <c r="H517" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
         <v>19</v>
       </c>
-      <c r="B517">
+      <c r="B518">
         <f>12.89</f>
         <v>12.89</v>
       </c>
-      <c r="C517" t="s">
-        <v>27</v>
-      </c>
-      <c r="D517" t="s">
+      <c r="C518" t="s">
+        <v>27</v>
+      </c>
+      <c r="D518" t="s">
         <v>6</v>
       </c>
-      <c r="F517" t="s">
-        <v>14</v>
-      </c>
-      <c r="G517" t="s">
+      <c r="F518" t="s">
+        <v>14</v>
+      </c>
+      <c r="G518" t="s">
         <v>19</v>
-      </c>
-      <c r="H517" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A518" t="s">
-        <v>125</v>
-      </c>
-      <c r="B518">
-        <v>1</v>
-      </c>
-      <c r="C518" t="s">
-        <v>27</v>
-      </c>
-      <c r="D518" t="s">
-        <v>13</v>
-      </c>
-      <c r="F518" t="s">
-        <v>20</v>
-      </c>
-      <c r="G518" t="s">
-        <v>32</v>
       </c>
       <c r="H518" t="s">
         <v>46</v>
@@ -9881,169 +9869,192 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
+        <v>125</v>
+      </c>
+      <c r="B519">
+        <v>1</v>
+      </c>
+      <c r="C519" t="s">
+        <v>27</v>
+      </c>
+      <c r="D519" t="s">
+        <v>13</v>
+      </c>
+      <c r="F519" t="s">
+        <v>20</v>
+      </c>
+      <c r="G519" t="s">
+        <v>32</v>
+      </c>
+      <c r="H519" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
         <v>51</v>
       </c>
-      <c r="B519" s="5">
+      <c r="B520" s="5">
         <f>((3090000*1000)/44900000)</f>
         <v>68.819599109131403</v>
       </c>
-      <c r="C519" t="s">
+      <c r="C520" t="s">
         <v>52</v>
       </c>
-      <c r="D519" t="s">
-        <v>13</v>
-      </c>
-      <c r="F519" t="s">
-        <v>14</v>
-      </c>
-      <c r="G519" t="s">
+      <c r="D520" t="s">
+        <v>13</v>
+      </c>
+      <c r="F520" t="s">
+        <v>14</v>
+      </c>
+      <c r="G520" t="s">
         <v>53</v>
       </c>
-      <c r="H519" t="s">
+      <c r="H520" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A520" t="s">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
         <v>37</v>
       </c>
-      <c r="B520" s="5">
+      <c r="B521" s="5">
         <f>(13600*1000)/44900000</f>
         <v>0.30289532293986637</v>
       </c>
-      <c r="C520" t="s">
-        <v>27</v>
-      </c>
-      <c r="D520" t="s">
+      <c r="C521" t="s">
+        <v>27</v>
+      </c>
+      <c r="D521" t="s">
         <v>7</v>
       </c>
-      <c r="F520" t="s">
-        <v>14</v>
-      </c>
-      <c r="G520" t="s">
+      <c r="F521" t="s">
+        <v>14</v>
+      </c>
+      <c r="G521" t="s">
         <v>22</v>
       </c>
-      <c r="H520" t="s">
+      <c r="H521" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A521" t="s">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
         <v>38</v>
       </c>
-      <c r="B521" s="5">
+      <c r="B522" s="5">
         <f>356/44900000</f>
         <v>7.9287305122494425E-6</v>
       </c>
-      <c r="C521" t="s">
+      <c r="C522" t="s">
         <v>28</v>
       </c>
-      <c r="D521" t="s">
-        <v>13</v>
-      </c>
-      <c r="F521" t="s">
-        <v>14</v>
-      </c>
-      <c r="G521" t="s">
+      <c r="D522" t="s">
+        <v>13</v>
+      </c>
+      <c r="F522" t="s">
+        <v>14</v>
+      </c>
+      <c r="G522" t="s">
         <v>39</v>
       </c>
-      <c r="H521" t="s">
+      <c r="H522" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A522" t="s">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
         <v>40</v>
       </c>
-      <c r="B522" s="5">
+      <c r="B523" s="5">
         <f>949/44900000</f>
         <v>2.11358574610245E-5</v>
       </c>
-      <c r="C522" t="s">
+      <c r="C523" t="s">
         <v>28</v>
       </c>
-      <c r="D522" t="s">
-        <v>13</v>
-      </c>
-      <c r="F522" t="s">
-        <v>14</v>
-      </c>
-      <c r="G522" t="s">
+      <c r="D523" t="s">
+        <v>13</v>
+      </c>
+      <c r="F523" t="s">
+        <v>14</v>
+      </c>
+      <c r="G523" t="s">
         <v>41</v>
       </c>
-      <c r="H522" t="s">
+      <c r="H523" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A523" t="s">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
         <v>42</v>
       </c>
-      <c r="B523" s="5">
+      <c r="B524" s="5">
         <f>178/44900000</f>
         <v>3.9643652561247212E-6</v>
       </c>
-      <c r="C523" t="s">
+      <c r="C524" t="s">
         <v>43</v>
       </c>
-      <c r="D523" t="s">
-        <v>13</v>
-      </c>
-      <c r="F523" t="s">
-        <v>14</v>
-      </c>
-      <c r="G523" t="s">
+      <c r="D524" t="s">
+        <v>13</v>
+      </c>
+      <c r="F524" t="s">
+        <v>14</v>
+      </c>
+      <c r="G524" t="s">
         <v>44</v>
       </c>
-      <c r="H523" t="s">
+      <c r="H524" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A524" s="4" t="s">
+    <row r="525" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A525" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B524" s="5">
+      <c r="B525" s="5">
         <f>6240000/44900000</f>
         <v>0.13897550111358575</v>
       </c>
-      <c r="C524" t="s">
-        <v>27</v>
-      </c>
-      <c r="D524" t="s">
-        <v>13</v>
-      </c>
-      <c r="F524" t="s">
-        <v>14</v>
-      </c>
-      <c r="G524" s="4" t="s">
+      <c r="C525" t="s">
+        <v>27</v>
+      </c>
+      <c r="D525" t="s">
+        <v>13</v>
+      </c>
+      <c r="F525" t="s">
+        <v>14</v>
+      </c>
+      <c r="G525" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H524" t="s">
+      <c r="H525" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A525" s="4" t="s">
+    <row r="526" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A526" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B525" s="5">
+      <c r="B526" s="5">
         <f>75900000/44900000</f>
         <v>1.6904231625835189</v>
       </c>
-      <c r="C525" t="s">
-        <v>27</v>
-      </c>
-      <c r="D525" t="s">
-        <v>13</v>
-      </c>
-      <c r="F525" t="s">
-        <v>14</v>
-      </c>
-      <c r="G525" s="4" t="s">
+      <c r="C526" t="s">
+        <v>27</v>
+      </c>
+      <c r="D526" t="s">
+        <v>13</v>
+      </c>
+      <c r="F526" t="s">
+        <v>14</v>
+      </c>
+      <c r="G526" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H525" t="s">
+      <c r="H526" t="s">
         <v>46</v>
       </c>
     </row>
